--- a/BackTest/2019-11-24 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-24 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>154259.6672</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,21 @@
         <v>145282.8687</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +523,21 @@
         <v>140857.8687</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +562,21 @@
         <v>140857.8687</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>66.5</v>
       </c>
-      <c r="K5" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,26 +601,21 @@
         <v>140857.8687</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
         <v>66.5</v>
       </c>
-      <c r="K6" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -648,26 +640,21 @@
         <v>140857.8687</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
         <v>66.5</v>
       </c>
-      <c r="K7" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -692,22 +679,21 @@
         <v>140857.8687</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
         <v>66.5</v>
       </c>
-      <c r="K8" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -732,26 +718,21 @@
         <v>140857.8687</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
         <v>66.5</v>
       </c>
-      <c r="K9" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -776,26 +757,21 @@
         <v>140857.8687</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
         <v>66.5</v>
       </c>
-      <c r="K10" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -820,22 +796,21 @@
         <v>137828.1494</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
         <v>66.5</v>
       </c>
-      <c r="K11" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -860,26 +835,21 @@
         <v>137836.1494</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
         <v>66.40000000000001</v>
       </c>
-      <c r="K12" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -904,26 +874,21 @@
         <v>137844.1494</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
         <v>66.5</v>
       </c>
-      <c r="K13" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -948,22 +913,21 @@
         <v>137830.3355</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
         <v>66.7</v>
       </c>
-      <c r="K14" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -988,26 +952,21 @@
         <v>137838.3355</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="K15" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1032,26 +991,21 @@
         <v>137828.3355</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
         <v>66.7</v>
       </c>
-      <c r="K16" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1076,22 +1030,21 @@
         <v>137858.3355</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
         <v>66.3</v>
       </c>
-      <c r="K17" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1116,26 +1069,21 @@
         <v>137878.3355</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
         <v>66.5</v>
       </c>
-      <c r="K18" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1160,26 +1108,21 @@
         <v>137878.3355</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
         <v>66.90000000000001</v>
       </c>
-      <c r="K19" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1204,22 +1147,19 @@
         <v>137878.3355</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K20" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1244,26 +1184,21 @@
         <v>137888.9418</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
         <v>66.90000000000001</v>
       </c>
-      <c r="K21" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1288,24 +1223,21 @@
         <v>137898.9418</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1330,24 +1262,21 @@
         <v>138451.9631</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1372,24 +1301,21 @@
         <v>138451.9631</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.7</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1416,22 +1342,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1458,22 +1379,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1500,22 +1416,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1542,22 +1453,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1584,22 +1490,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1626,22 +1527,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1668,22 +1564,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1710,22 +1601,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1752,22 +1638,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1794,22 +1675,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1836,22 +1712,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1878,22 +1749,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1920,22 +1786,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1962,22 +1823,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2004,22 +1860,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2046,22 +1897,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2086,26 +1932,19 @@
         <v>-290887.802</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="K41" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2132,22 +1971,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2172,26 +2006,19 @@
         <v>-276767.6476</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="K43" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2218,22 +2045,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2260,22 +2082,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2302,22 +2119,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2344,22 +2156,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2384,26 +2191,19 @@
         <v>-270169.9494</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="K48" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2428,26 +2228,19 @@
         <v>-263901.9494</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="K49" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2472,26 +2265,19 @@
         <v>-253017.0054000001</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="K50" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2516,26 +2302,19 @@
         <v>-253271.0054000001</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>69.7</v>
-      </c>
-      <c r="K51" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2560,26 +2339,19 @@
         <v>-253271.0054000001</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="K52" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2604,26 +2376,19 @@
         <v>-253271.0054000001</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="K53" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2648,26 +2413,19 @@
         <v>-253832.879</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="K54" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2692,26 +2450,21 @@
         <v>-253832.879</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
         <v>69.2</v>
       </c>
-      <c r="K55" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2736,26 +2489,21 @@
         <v>-242522.7575</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
         <v>69.2</v>
       </c>
-      <c r="K56" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2780,26 +2528,19 @@
         <v>-242522.7575</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="K57" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2824,26 +2565,19 @@
         <v>-242522.7575</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="K58" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2868,26 +2602,19 @@
         <v>-242522.7575</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="K59" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2912,26 +2639,19 @@
         <v>-231416.7925</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="K60" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2956,26 +2676,19 @@
         <v>-231416.7925</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="K61" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3000,26 +2713,19 @@
         <v>-221416.7925</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="K62" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3044,26 +2750,19 @@
         <v>-221416.7925</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K63" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3088,26 +2787,19 @@
         <v>-221408.7925</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K64" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3132,26 +2824,19 @@
         <v>-179027.0128</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>70</v>
-      </c>
-      <c r="K65" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3178,22 +2863,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3220,22 +2900,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3262,22 +2937,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3304,22 +2974,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3346,22 +3011,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3388,22 +3048,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3430,22 +3085,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3472,22 +3122,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3514,22 +3159,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3556,22 +3196,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3598,22 +3233,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3640,22 +3270,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3682,22 +3307,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3724,22 +3344,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3766,22 +3381,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3808,22 +3418,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3850,22 +3455,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3892,22 +3492,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3934,22 +3529,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3976,22 +3566,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4018,22 +3603,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4060,22 +3640,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4102,22 +3677,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4144,22 +3714,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4186,22 +3751,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4228,22 +3788,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4268,24 +3823,17 @@
         <v>-89659.20020000005</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4310,24 +3858,15 @@
         <v>-56290.28410000005</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4352,24 +3891,15 @@
         <v>-38643.88810000005</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4394,24 +3924,15 @@
         <v>-38643.88810000005</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4436,24 +3957,15 @@
         <v>-30666.47980000005</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4478,26 +3990,15 @@
         <v>-52660.17500000005</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1.068243647234679</v>
-      </c>
-      <c r="N97" t="n">
-        <v>1.010558069381599</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4522,18 +4023,15 @@
         <v>-52660.17500000005</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4558,18 +4056,15 @@
         <v>-44701.74060000005</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4594,18 +4089,15 @@
         <v>-45531.74060000005</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4632,16 +4124,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4668,16 +4157,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4704,16 +4190,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4740,16 +4223,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4774,18 +4254,15 @@
         <v>8818.473799999952</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4810,18 +4287,15 @@
         <v>8818.473799999952</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4846,18 +4320,15 @@
         <v>3818.473799999952</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4882,18 +4353,15 @@
         <v>3364.372899999953</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4918,18 +4386,15 @@
         <v>-4333.758900000048</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4954,18 +4419,15 @@
         <v>-4440.184300000048</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4992,16 +4454,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5028,16 +4487,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5062,18 +4518,15 @@
         <v>-5213.187100000047</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5098,18 +4551,15 @@
         <v>-5213.187100000047</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5134,18 +4584,15 @@
         <v>-5213.187100000047</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5170,18 +4617,15 @@
         <v>-5318.776100000047</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5206,18 +4650,15 @@
         <v>-11155.24040000005</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5242,18 +4683,15 @@
         <v>-11155.24040000005</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5278,20 +4716,17 @@
         <v>-11155.24040000005</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-24 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-24 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>154259.6672</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>145282.8687</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>67</v>
@@ -523,7 +523,7 @@
         <v>140857.8687</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>66.59999999999999</v>
@@ -562,7 +562,7 @@
         <v>140857.8687</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>66.5</v>
@@ -601,7 +601,7 @@
         <v>140857.8687</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>66.5</v>
@@ -640,7 +640,7 @@
         <v>140857.8687</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>66.5</v>
@@ -679,7 +679,7 @@
         <v>140857.8687</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>66.5</v>
@@ -718,7 +718,7 @@
         <v>140857.8687</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>66.5</v>
@@ -757,7 +757,7 @@
         <v>140857.8687</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>66.5</v>
@@ -796,11 +796,9 @@
         <v>137828.1494</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>66.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -835,11 +833,9 @@
         <v>137836.1494</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>66.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -874,11 +870,9 @@
         <v>137844.1494</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>66.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -913,11 +907,9 @@
         <v>137830.3355</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>66.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -952,11 +944,9 @@
         <v>137838.3355</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>66.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -991,11 +981,9 @@
         <v>137828.3355</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>66.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1030,11 +1018,9 @@
         <v>137858.3355</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>66.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1069,11 +1055,9 @@
         <v>137878.3355</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>66.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1108,11 +1092,9 @@
         <v>137878.3355</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>66.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1184,11 +1166,9 @@
         <v>137888.9418</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>66.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1223,11 +1203,9 @@
         <v>137898.9418</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1262,11 +1240,9 @@
         <v>138451.9631</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>67.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1301,11 +1277,9 @@
         <v>138451.9631</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>67.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -2450,11 +2424,9 @@
         <v>-253832.879</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>69.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2489,11 +2461,9 @@
         <v>-242522.7575</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>69.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -3046,9 +3016,11 @@
         <v>-165201.6977</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>70.7</v>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3083,9 +3055,11 @@
         <v>-146578.8164</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>70.40000000000001</v>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -3675,9 +3649,11 @@
         <v>-98553.87550000005</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>71.2</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3712,9 +3688,11 @@
         <v>-98617.20020000005</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>71.5</v>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -3749,9 +3727,11 @@
         <v>-98617.20020000005</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>71.09999999999999</v>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3786,9 +3766,11 @@
         <v>-89659.20020000005</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>71.09999999999999</v>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -3823,16 +3805,20 @@
         <v>-89659.20020000005</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>72</v>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
       <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
@@ -3858,11 +3844,17 @@
         <v>-56290.28410000005</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>72</v>
+      </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3891,11 +3883,17 @@
         <v>-38643.88810000005</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>72.5</v>
+      </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3924,11 +3922,17 @@
         <v>-38643.88810000005</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>72.7</v>
+      </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3957,11 +3961,15 @@
         <v>-30666.47980000005</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3990,11 +3998,15 @@
         <v>-52660.17500000005</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4023,11 +4035,15 @@
         <v>-52660.17500000005</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4056,11 +4072,15 @@
         <v>-44701.74060000005</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4089,11 +4109,15 @@
         <v>-45531.74060000005</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4126,7 +4150,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4159,7 +4187,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4192,7 +4224,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4225,7 +4261,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4254,11 +4294,15 @@
         <v>8818.473799999952</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4287,11 +4331,15 @@
         <v>8818.473799999952</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4320,14 +4368,16 @@
         <v>3818.473799999952</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
@@ -4353,7 +4403,7 @@
         <v>3364.372899999953</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4386,7 +4436,7 @@
         <v>-4333.758900000048</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4419,7 +4469,7 @@
         <v>-4440.184300000048</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4452,7 +4502,7 @@
         <v>3630.983599999952</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4485,7 +4535,7 @@
         <v>-2575.034300000048</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4518,7 +4568,7 @@
         <v>-5213.187100000047</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4551,7 +4601,7 @@
         <v>-5213.187100000047</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4584,7 +4634,7 @@
         <v>-5213.187100000047</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4617,7 +4667,7 @@
         <v>-5318.776100000047</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4650,7 +4700,7 @@
         <v>-11155.24040000005</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4683,7 +4733,7 @@
         <v>-11155.24040000005</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4716,7 +4766,7 @@
         <v>-11155.24040000005</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4727,6 +4777,6 @@
       <c r="M119" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-24 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-24 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,17 +484,11 @@
         <v>145282.8687</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>140857.8687</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>66.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -567,12 +555,10 @@
       <c r="I5" t="n">
         <v>66.5</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -606,10 +592,12 @@
       <c r="I6" t="n">
         <v>66.5</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>66.5</v>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -645,10 +633,12 @@
       <c r="I7" t="n">
         <v>66.5</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>66.5</v>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -684,12 +674,10 @@
       <c r="I8" t="n">
         <v>66.5</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -723,10 +711,12 @@
       <c r="I9" t="n">
         <v>66.5</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>66.5</v>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -762,10 +752,12 @@
       <c r="I10" t="n">
         <v>66.5</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>66.5</v>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -796,15 +788,15 @@
         <v>137828.1494</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -833,13 +825,17 @@
         <v>137836.1494</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="J12" t="n">
+        <v>66.5</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -870,13 +866,17 @@
         <v>137844.1494</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>66.5</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -907,15 +907,15 @@
         <v>137830.3355</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -944,13 +944,17 @@
         <v>137838.3355</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="J15" t="n">
+        <v>66.7</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -981,13 +985,17 @@
         <v>137828.3355</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="J16" t="n">
+        <v>66.7</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1018,15 +1026,15 @@
         <v>137858.3355</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1055,13 +1063,17 @@
         <v>137878.3355</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>66.3</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1092,13 +1104,17 @@
         <v>137878.3355</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="J19" t="n">
+        <v>66.3</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1129,15 +1145,15 @@
         <v>137878.3355</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="J20" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1166,13 +1182,17 @@
         <v>137888.9418</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="J21" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1206,7 +1226,9 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1243,7 +1265,9 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1280,7 +1304,9 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1317,7 +1343,9 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1354,7 +1382,9 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1391,7 +1421,9 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1428,7 +1460,9 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1465,7 +1499,9 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1502,7 +1538,9 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1539,7 +1577,9 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1576,7 +1616,9 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1613,7 +1655,9 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1650,7 +1694,9 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1687,7 +1733,9 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1724,7 +1772,9 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1761,7 +1811,9 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1798,7 +1850,9 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1835,7 +1889,9 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1872,7 +1928,9 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1909,7 +1967,9 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1946,7 +2006,9 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1983,7 +2045,9 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2020,7 +2084,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2057,7 +2123,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2094,7 +2162,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2131,7 +2201,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2168,7 +2240,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2205,7 +2279,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2242,7 +2318,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2279,7 +2357,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2316,7 +2396,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2353,7 +2435,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2390,7 +2474,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2427,7 +2513,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2464,7 +2552,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2501,7 +2591,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2538,7 +2630,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2575,7 +2669,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2612,7 +2708,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2649,7 +2747,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2686,7 +2786,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2723,7 +2825,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2757,17 +2861,19 @@
         <v>-221408.7925</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>66.90000000000001</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>1.041337817638266</v>
       </c>
       <c r="M64" t="inlineStr"/>
     </row>
@@ -2794,15 +2900,11 @@
         <v>-179027.0128</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2831,15 +2933,11 @@
         <v>-178134.2428</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2868,15 +2966,11 @@
         <v>-173763.7234</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2905,15 +2999,11 @@
         <v>-173763.7234</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2942,15 +3032,11 @@
         <v>-165101.6977</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2979,15 +3065,11 @@
         <v>-165101.6977</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3016,17 +3098,11 @@
         <v>-165201.6977</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>70.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3055,17 +3131,11 @@
         <v>-146578.8164</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>70.40000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3094,15 +3164,11 @@
         <v>-146578.8164</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3131,15 +3197,11 @@
         <v>-146578.8164</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3168,15 +3230,11 @@
         <v>-140907.6626</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3205,15 +3263,11 @@
         <v>-140936.0314</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3242,15 +3296,11 @@
         <v>-140928.9314</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3279,15 +3329,11 @@
         <v>-140928.9314</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3316,15 +3362,11 @@
         <v>-121291.4603</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3353,15 +3395,11 @@
         <v>-101205.2638</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3394,11 +3432,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3431,11 +3465,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3464,15 +3494,15 @@
         <v>-99082.37180000005</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="J83" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3501,13 +3531,17 @@
         <v>-99096.43650000005</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="J84" t="n">
+        <v>71.09999999999999</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -3538,13 +3572,17 @@
         <v>-98588.43650000005</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="J85" t="n">
+        <v>71.09999999999999</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -3579,11 +3617,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3612,15 +3646,15 @@
         <v>-98588.43650000005</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="J87" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3649,15 +3683,15 @@
         <v>-98553.87550000005</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
         <v>71.2</v>
       </c>
-      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -3688,15 +3722,15 @@
         <v>-98617.20020000005</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>71.2</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -3732,12 +3766,10 @@
       <c r="I90" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3771,10 +3803,12 @@
       <c r="I91" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>71.09999999999999</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -3805,15 +3839,15 @@
         <v>-89659.20020000005</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>72</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>71.09999999999999</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -3844,17 +3878,11 @@
         <v>-56290.28410000005</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3883,17 +3911,11 @@
         <v>-38643.88810000005</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>72.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3922,17 +3944,11 @@
         <v>-38643.88810000005</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>72.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3965,11 +3981,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4002,11 +4014,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4039,11 +4047,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4076,11 +4080,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4113,11 +4113,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4150,11 +4146,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4187,11 +4179,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4224,11 +4212,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4261,11 +4245,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4298,11 +4278,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4335,11 +4311,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4368,16 +4340,14 @@
         <v>3818.473799999952</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
       <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
@@ -4436,7 +4406,7 @@
         <v>-4333.758900000048</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4469,7 +4439,7 @@
         <v>-4440.184300000048</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4502,7 +4472,7 @@
         <v>3630.983599999952</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4535,7 +4505,7 @@
         <v>-2575.034300000048</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4568,7 +4538,7 @@
         <v>-5213.187100000047</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4601,7 +4571,7 @@
         <v>-5213.187100000047</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4634,7 +4604,7 @@
         <v>-5213.187100000047</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4667,7 +4637,7 @@
         <v>-5318.776100000047</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4700,7 +4670,7 @@
         <v>-11155.24040000005</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4733,7 +4703,7 @@
         <v>-11155.24040000005</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4766,7 +4736,7 @@
         <v>-11155.24040000005</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4777,6 +4747,6 @@
       <c r="M119" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-24 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-24 BackTest ENJ.xlsx
@@ -451,7 +451,7 @@
         <v>154259.6672</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -550,14 +550,10 @@
         <v>140857.8687</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>66.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
@@ -587,19 +583,11 @@
         <v>140857.8687</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -628,19 +616,11 @@
         <v>140857.8687</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -669,14 +649,10 @@
         <v>140857.8687</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>66.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -706,19 +682,11 @@
         <v>140857.8687</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -747,19 +715,11 @@
         <v>140857.8687</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -788,14 +748,10 @@
         <v>137828.1494</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>66.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -825,19 +781,11 @@
         <v>137836.1494</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="J12" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -866,19 +814,11 @@
         <v>137844.1494</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -907,14 +847,10 @@
         <v>137830.3355</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>66.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
@@ -944,19 +880,11 @@
         <v>137838.3355</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="J15" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -985,19 +913,11 @@
         <v>137828.3355</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1026,14 +946,10 @@
         <v>137858.3355</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>66.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -1063,19 +979,11 @@
         <v>137878.3355</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1104,19 +1012,11 @@
         <v>137878.3355</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J19" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1145,14 +1045,10 @@
         <v>137878.3355</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J20" t="n">
-        <v>66.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
@@ -1182,19 +1078,11 @@
         <v>137888.9418</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="J21" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1226,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1265,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1304,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1343,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1382,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1421,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1460,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1499,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1538,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1577,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1616,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1655,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1694,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1733,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1772,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1811,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1850,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1889,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1928,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1967,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2006,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2045,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2084,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2123,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2162,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2201,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2240,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2279,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2318,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2357,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2396,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2435,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2474,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2513,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2552,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2591,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2630,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2669,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2708,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2747,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2786,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2825,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2861,19 +2497,17 @@
         <v>-221408.7925</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>69.90000000000001</v>
+      </c>
       <c r="J64" t="n">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>1.041337817638266</v>
+        <v>1</v>
       </c>
       <c r="M64" t="inlineStr"/>
     </row>
@@ -2900,11 +2534,17 @@
         <v>-179027.0128</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2933,11 +2573,19 @@
         <v>-178134.2428</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2966,11 +2614,19 @@
         <v>-173763.7234</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2999,11 +2655,19 @@
         <v>-173763.7234</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="J68" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3032,11 +2696,17 @@
         <v>-165101.6977</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3065,11 +2735,17 @@
         <v>-165101.6977</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3098,11 +2774,19 @@
         <v>-165201.6977</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="J71" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3131,11 +2815,19 @@
         <v>-146578.8164</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="J72" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3164,11 +2856,17 @@
         <v>-146578.8164</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3197,11 +2895,17 @@
         <v>-146578.8164</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3230,11 +2934,17 @@
         <v>-140907.6626</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3263,11 +2973,19 @@
         <v>-140936.0314</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="J76" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3296,11 +3014,17 @@
         <v>-140928.9314</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3329,11 +3053,19 @@
         <v>-140928.9314</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="J78" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3362,11 +3094,19 @@
         <v>-121291.4603</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="J79" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3395,11 +3135,19 @@
         <v>-101205.2638</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="J80" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3431,8 +3179,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3461,11 +3215,19 @@
         <v>-101495.4508</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="J82" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3500,9 +3262,13 @@
         <v>71.09999999999999</v>
       </c>
       <c r="J83" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3537,11 +3303,11 @@
         <v>71.2</v>
       </c>
       <c r="J84" t="n">
-        <v>71.09999999999999</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -3578,11 +3344,11 @@
         <v>71.09999999999999</v>
       </c>
       <c r="J85" t="n">
-        <v>71.09999999999999</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -3613,11 +3379,19 @@
         <v>-98588.43650000005</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="J86" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3652,9 +3426,13 @@
         <v>71.2</v>
       </c>
       <c r="J87" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3683,15 +3461,17 @@
         <v>-98553.87550000005</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>71.2</v>
+      </c>
       <c r="J88" t="n">
-        <v>71.2</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -3726,11 +3506,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>71.2</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -3767,9 +3547,13 @@
         <v>71.09999999999999</v>
       </c>
       <c r="J90" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3804,11 +3588,11 @@
         <v>71.09999999999999</v>
       </c>
       <c r="J91" t="n">
-        <v>71.09999999999999</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -3839,15 +3623,17 @@
         <v>-89659.20020000005</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>72</v>
+      </c>
       <c r="J92" t="n">
-        <v>71.09999999999999</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -3878,11 +3664,19 @@
         <v>-56290.28410000005</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>72</v>
+      </c>
+      <c r="J93" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3911,11 +3705,19 @@
         <v>-38643.88810000005</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="J94" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3944,11 +3746,19 @@
         <v>-38643.88810000005</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="J95" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3980,8 +3790,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4013,8 +3829,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4046,8 +3868,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4076,11 +3904,19 @@
         <v>-44701.74060000005</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="J99" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4112,8 +3948,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4145,8 +3987,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4178,8 +4026,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4211,8 +4065,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4241,15 +4101,23 @@
         <v>8832.673399999952</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>1.063669527896996</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1.061933534743202</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4274,7 +4142,7 @@
         <v>8818.473799999952</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4307,7 +4175,7 @@
         <v>8818.473799999952</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4340,7 +4208,7 @@
         <v>3818.473799999952</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4373,7 +4241,7 @@
         <v>3364.372899999953</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4406,7 +4274,7 @@
         <v>-4333.758900000048</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4439,7 +4307,7 @@
         <v>-4440.184300000048</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4505,7 +4373,7 @@
         <v>-2575.034300000048</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4538,7 +4406,7 @@
         <v>-5213.187100000047</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4604,7 +4472,7 @@
         <v>-5213.187100000047</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4637,7 +4505,7 @@
         <v>-5318.776100000047</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>

--- a/BackTest/2019-11-24 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-24 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:L119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>4886</v>
       </c>
       <c r="G2" t="n">
-        <v>154259.6672</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,21 @@
         <v>8976.798500000001</v>
       </c>
       <c r="G3" t="n">
-        <v>145282.8687</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +509,21 @@
         <v>4425</v>
       </c>
       <c r="G4" t="n">
-        <v>140857.8687</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,21 @@
         <v>2107.84</v>
       </c>
       <c r="G5" t="n">
-        <v>140857.8687</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +581,21 @@
         <v>24291.9905</v>
       </c>
       <c r="G6" t="n">
-        <v>140857.8687</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +617,21 @@
         <v>813.0418</v>
       </c>
       <c r="G7" t="n">
-        <v>140857.8687</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +653,21 @@
         <v>602</v>
       </c>
       <c r="G8" t="n">
-        <v>140857.8687</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +689,21 @@
         <v>515</v>
       </c>
       <c r="G9" t="n">
-        <v>140857.8687</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +725,21 @@
         <v>1350.4034</v>
       </c>
       <c r="G10" t="n">
-        <v>140857.8687</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +761,21 @@
         <v>3029.7193</v>
       </c>
       <c r="G11" t="n">
-        <v>137828.1494</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +797,21 @@
         <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>137836.1494</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +833,21 @@
         <v>8</v>
       </c>
       <c r="G13" t="n">
-        <v>137844.1494</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +869,21 @@
         <v>13.8139</v>
       </c>
       <c r="G14" t="n">
-        <v>137830.3355</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +905,21 @@
         <v>8</v>
       </c>
       <c r="G15" t="n">
-        <v>137838.3355</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +941,21 @@
         <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>137828.3355</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +977,21 @@
         <v>30</v>
       </c>
       <c r="G17" t="n">
-        <v>137858.3355</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>66.3</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1013,21 @@
         <v>20</v>
       </c>
       <c r="G18" t="n">
-        <v>137878.3355</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1049,21 @@
         <v>9881.393700000001</v>
       </c>
       <c r="G19" t="n">
-        <v>137878.3355</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1085,21 @@
         <v>118</v>
       </c>
       <c r="G20" t="n">
-        <v>137878.3355</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1121,21 @@
         <v>10.6063</v>
       </c>
       <c r="G21" t="n">
-        <v>137888.9418</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1157,21 @@
         <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>137898.9418</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1193,21 @@
         <v>553.0213</v>
       </c>
       <c r="G23" t="n">
-        <v>138451.9631</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1229,19 @@
         <v>767.9681</v>
       </c>
       <c r="G24" t="n">
-        <v>138451.9631</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1263,19 @@
         <v>17436.1226</v>
       </c>
       <c r="G25" t="n">
-        <v>121015.8405</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1297,19 @@
         <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>121025.8405</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1331,19 @@
         <v>100</v>
       </c>
       <c r="G27" t="n">
-        <v>120925.8405</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1365,19 @@
         <v>14.8</v>
       </c>
       <c r="G28" t="n">
-        <v>120940.6405</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1399,19 @@
         <v>107.4</v>
       </c>
       <c r="G29" t="n">
-        <v>120940.6405</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1433,19 @@
         <v>7.4</v>
       </c>
       <c r="G30" t="n">
-        <v>120940.6405</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1467,19 @@
         <v>8.479799999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>120949.1203</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1501,19 @@
         <v>774.9621</v>
       </c>
       <c r="G32" t="n">
-        <v>120949.1203</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1535,19 @@
         <v>489.287</v>
       </c>
       <c r="G33" t="n">
-        <v>120949.1203</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1569,19 @@
         <v>4098</v>
       </c>
       <c r="G34" t="n">
-        <v>116851.1203</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1603,19 @@
         <v>10</v>
       </c>
       <c r="G35" t="n">
-        <v>116861.1203</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1637,19 @@
         <v>80004.1844</v>
       </c>
       <c r="G36" t="n">
-        <v>36856.9359</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1671,19 @@
         <v>269617.9076</v>
       </c>
       <c r="G37" t="n">
-        <v>-232760.9717</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1705,21 @@
         <v>2433.316</v>
       </c>
       <c r="G38" t="n">
-        <v>-230327.6557</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>67.2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1741,21 @@
         <v>60560.1463</v>
       </c>
       <c r="G39" t="n">
-        <v>-290887.802</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1777,19 @@
         <v>27050</v>
       </c>
       <c r="G40" t="n">
-        <v>-290887.802</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1811,19 @@
         <v>7530</v>
       </c>
       <c r="G41" t="n">
-        <v>-290887.802</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1845,19 @@
         <v>5421</v>
       </c>
       <c r="G42" t="n">
-        <v>-285466.802</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1879,19 @@
         <v>8699.154399999999</v>
       </c>
       <c r="G43" t="n">
-        <v>-276767.6476</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1913,19 @@
         <v>13081.6772</v>
       </c>
       <c r="G44" t="n">
-        <v>-276767.6476</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1947,19 @@
         <v>1246</v>
       </c>
       <c r="G45" t="n">
-        <v>-275521.6476</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1981,19 @@
         <v>2011</v>
       </c>
       <c r="G46" t="n">
-        <v>-273510.6476</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +2015,19 @@
         <v>14.5349</v>
       </c>
       <c r="G47" t="n">
-        <v>-273525.1825000001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2049,19 @@
         <v>3355.2331</v>
       </c>
       <c r="G48" t="n">
-        <v>-270169.9494</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2083,19 @@
         <v>6268</v>
       </c>
       <c r="G49" t="n">
-        <v>-263901.9494</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2117,19 @@
         <v>10884.944</v>
       </c>
       <c r="G50" t="n">
-        <v>-253017.0054000001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2151,19 @@
         <v>254</v>
       </c>
       <c r="G51" t="n">
-        <v>-253271.0054000001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2185,19 @@
         <v>2824</v>
       </c>
       <c r="G52" t="n">
-        <v>-253271.0054000001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2219,19 @@
         <v>2500</v>
       </c>
       <c r="G53" t="n">
-        <v>-253271.0054000001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2253,19 @@
         <v>561.8736</v>
       </c>
       <c r="G54" t="n">
-        <v>-253832.879</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2287,19 @@
         <v>100</v>
       </c>
       <c r="G55" t="n">
-        <v>-253832.879</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2321,19 @@
         <v>11310.1215</v>
       </c>
       <c r="G56" t="n">
-        <v>-242522.7575</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2355,19 @@
         <v>5909</v>
       </c>
       <c r="G57" t="n">
-        <v>-242522.7575</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2389,19 @@
         <v>2824.9999</v>
       </c>
       <c r="G58" t="n">
-        <v>-242522.7575</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2423,19 @@
         <v>10303.5</v>
       </c>
       <c r="G59" t="n">
-        <v>-242522.7575</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2457,19 @@
         <v>11105.965</v>
       </c>
       <c r="G60" t="n">
-        <v>-231416.7925</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2491,19 @@
         <v>5958</v>
       </c>
       <c r="G61" t="n">
-        <v>-231416.7925</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2525,19 @@
         <v>10000</v>
       </c>
       <c r="G62" t="n">
-        <v>-221416.7925</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2559,19 @@
         <v>143</v>
       </c>
       <c r="G63" t="n">
-        <v>-221416.7925</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,22 +2593,19 @@
         <v>8</v>
       </c>
       <c r="G64" t="n">
-        <v>-221408.7925</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="J64" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2531,24 +2627,19 @@
         <v>42381.7797</v>
       </c>
       <c r="G65" t="n">
-        <v>-179027.0128</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2570,26 +2661,19 @@
         <v>892.77</v>
       </c>
       <c r="G66" t="n">
-        <v>-178134.2428</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="J66" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2611,26 +2695,19 @@
         <v>4370.5194</v>
       </c>
       <c r="G67" t="n">
-        <v>-173763.7234</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="J67" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2652,26 +2729,19 @@
         <v>95.50879999999999</v>
       </c>
       <c r="G68" t="n">
-        <v>-173763.7234</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="J68" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2693,24 +2763,19 @@
         <v>8662.0257</v>
       </c>
       <c r="G69" t="n">
-        <v>-165101.6977</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2732,24 +2797,19 @@
         <v>2687</v>
       </c>
       <c r="G70" t="n">
-        <v>-165101.6977</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2771,26 +2831,19 @@
         <v>100</v>
       </c>
       <c r="G71" t="n">
-        <v>-165201.6977</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>70.7</v>
-      </c>
-      <c r="J71" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2812,26 +2865,19 @@
         <v>18622.8813</v>
       </c>
       <c r="G72" t="n">
-        <v>-146578.8164</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="J72" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2853,24 +2899,19 @@
         <v>5417.9999</v>
       </c>
       <c r="G73" t="n">
-        <v>-146578.8164</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2892,24 +2933,19 @@
         <v>2834</v>
       </c>
       <c r="G74" t="n">
-        <v>-146578.8164</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2931,24 +2967,19 @@
         <v>5671.1538</v>
       </c>
       <c r="G75" t="n">
-        <v>-140907.6626</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2970,26 +3001,19 @@
         <v>28.3688</v>
       </c>
       <c r="G76" t="n">
-        <v>-140936.0314</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>70.90000000000001</v>
-      </c>
-      <c r="J76" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3011,24 +3035,19 @@
         <v>7.1</v>
       </c>
       <c r="G77" t="n">
-        <v>-140928.9314</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3050,26 +3069,19 @@
         <v>5500</v>
       </c>
       <c r="G78" t="n">
-        <v>-140928.9314</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="J78" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3091,26 +3103,19 @@
         <v>19637.4711</v>
       </c>
       <c r="G79" t="n">
-        <v>-121291.4603</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="J79" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3132,26 +3137,19 @@
         <v>20086.1965</v>
       </c>
       <c r="G80" t="n">
-        <v>-101205.2638</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="J80" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3173,24 +3171,19 @@
         <v>11946.0703</v>
       </c>
       <c r="G81" t="n">
-        <v>-101205.2638</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3212,26 +3205,19 @@
         <v>290.187</v>
       </c>
       <c r="G82" t="n">
-        <v>-101495.4508</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="J82" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3253,26 +3239,19 @@
         <v>2413.079</v>
       </c>
       <c r="G83" t="n">
-        <v>-99082.37180000005</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="J83" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3294,26 +3273,19 @@
         <v>14.0647</v>
       </c>
       <c r="G84" t="n">
-        <v>-99096.43650000005</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3335,26 +3307,19 @@
         <v>508</v>
       </c>
       <c r="G85" t="n">
-        <v>-98588.43650000005</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="J85" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3376,26 +3341,19 @@
         <v>2548.8678</v>
       </c>
       <c r="G86" t="n">
-        <v>-98588.43650000005</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="J86" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3417,26 +3375,19 @@
         <v>4530.0532</v>
       </c>
       <c r="G87" t="n">
-        <v>-98588.43650000005</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="J87" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3458,26 +3409,19 @@
         <v>34.561</v>
       </c>
       <c r="G88" t="n">
-        <v>-98553.87550000005</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="J88" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3499,24 +3443,19 @@
         <v>63.3247</v>
       </c>
       <c r="G89" t="n">
-        <v>-98617.20020000005</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3538,26 +3477,19 @@
         <v>638.1757</v>
       </c>
       <c r="G90" t="n">
-        <v>-98617.20020000005</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="J90" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3579,26 +3511,19 @@
         <v>8958</v>
       </c>
       <c r="G91" t="n">
-        <v>-89659.20020000005</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="J91" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3620,26 +3545,19 @@
         <v>2700.7122</v>
       </c>
       <c r="G92" t="n">
-        <v>-89659.20020000005</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>72</v>
-      </c>
-      <c r="J92" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3661,26 +3579,19 @@
         <v>33368.9161</v>
       </c>
       <c r="G93" t="n">
-        <v>-56290.28410000005</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>72</v>
-      </c>
-      <c r="J93" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3702,26 +3613,19 @@
         <v>17646.396</v>
       </c>
       <c r="G94" t="n">
-        <v>-38643.88810000005</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="J94" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3743,26 +3647,19 @@
         <v>121.733</v>
       </c>
       <c r="G95" t="n">
-        <v>-38643.88810000005</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>72.7</v>
-      </c>
-      <c r="J95" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3784,24 +3681,19 @@
         <v>7977.4083</v>
       </c>
       <c r="G96" t="n">
-        <v>-30666.47980000005</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3823,24 +3715,19 @@
         <v>21993.6952</v>
       </c>
       <c r="G97" t="n">
-        <v>-52660.17500000005</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3862,24 +3749,19 @@
         <v>1250.9248</v>
       </c>
       <c r="G98" t="n">
-        <v>-52660.17500000005</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3901,26 +3783,19 @@
         <v>7958.4344</v>
       </c>
       <c r="G99" t="n">
-        <v>-44701.74060000005</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="J99" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3942,24 +3817,19 @@
         <v>830</v>
       </c>
       <c r="G100" t="n">
-        <v>-45531.74060000005</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3981,24 +3851,19 @@
         <v>29142.574</v>
       </c>
       <c r="G101" t="n">
-        <v>-16389.16660000005</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4020,24 +3885,19 @@
         <v>11584.3</v>
       </c>
       <c r="G102" t="n">
-        <v>-27973.46660000005</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4059,24 +3919,19 @@
         <v>25139.3</v>
       </c>
       <c r="G103" t="n">
-        <v>-2834.166600000048</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4098,26 +3953,19 @@
         <v>11666.84</v>
       </c>
       <c r="G104" t="n">
-        <v>8832.673399999952</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1.063669527896996</v>
-      </c>
-      <c r="M104" t="n">
-        <v>1.061933534743202</v>
-      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4139,18 +3987,17 @@
         <v>14.1996</v>
       </c>
       <c r="G105" t="n">
-        <v>8818.473799999952</v>
-      </c>
-      <c r="H105" t="n">
         <v>2</v>
       </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4172,18 +4019,15 @@
         <v>14862.5878</v>
       </c>
       <c r="G106" t="n">
-        <v>8818.473799999952</v>
-      </c>
-      <c r="H106" t="n">
         <v>2</v>
       </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4205,18 +4049,15 @@
         <v>5000</v>
       </c>
       <c r="G107" t="n">
-        <v>3818.473799999952</v>
-      </c>
-      <c r="H107" t="n">
         <v>2</v>
       </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4238,18 +4079,15 @@
         <v>454.1009</v>
       </c>
       <c r="G108" t="n">
-        <v>3364.372899999953</v>
-      </c>
-      <c r="H108" t="n">
         <v>2</v>
       </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4271,18 +4109,15 @@
         <v>7698.1318</v>
       </c>
       <c r="G109" t="n">
-        <v>-4333.758900000048</v>
-      </c>
-      <c r="H109" t="n">
         <v>2</v>
       </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4304,18 +4139,15 @@
         <v>106.4254</v>
       </c>
       <c r="G110" t="n">
-        <v>-4440.184300000048</v>
-      </c>
-      <c r="H110" t="n">
         <v>2</v>
       </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4337,18 +4169,15 @@
         <v>8071.1679</v>
       </c>
       <c r="G111" t="n">
-        <v>3630.983599999952</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4370,18 +4199,15 @@
         <v>6206.0179</v>
       </c>
       <c r="G112" t="n">
-        <v>-2575.034300000048</v>
-      </c>
-      <c r="H112" t="n">
         <v>2</v>
       </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4403,18 +4229,15 @@
         <v>2638.1528</v>
       </c>
       <c r="G113" t="n">
-        <v>-5213.187100000047</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4436,18 +4259,15 @@
         <v>1252.8114</v>
       </c>
       <c r="G114" t="n">
-        <v>-5213.187100000047</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4469,18 +4289,15 @@
         <v>4200.0412</v>
       </c>
       <c r="G115" t="n">
-        <v>-5213.187100000047</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4502,18 +4319,15 @@
         <v>105.589</v>
       </c>
       <c r="G116" t="n">
-        <v>-5318.776100000047</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4535,18 +4349,15 @@
         <v>5836.4643</v>
       </c>
       <c r="G117" t="n">
-        <v>-11155.24040000005</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4568,18 +4379,15 @@
         <v>2824.8481</v>
       </c>
       <c r="G118" t="n">
-        <v>-11155.24040000005</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4601,18 +4409,15 @@
         <v>4376.58</v>
       </c>
       <c r="G119" t="n">
-        <v>-11155.24040000005</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
